--- a/Datos/Database by set/Set with text box/Xlsx sets/Starter 2000 (S00).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Starter 2000 (S00).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,602 +444,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angelic Blessing</t>
+          <t>('Angelic Blessing', ['{2}{W}', 'Sorcery', 'Target creature gets +3/+3 and gains flying until end of turn. (It can’t be blocked except by creatures with flying or reach.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{W}</t>
+          <t>('Breath of Life', ['{3}{W}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Durkwood Boars', ['{4}{G}', 'Creature — Boar', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Target creature gets +3/+3 and gains flying until end of turn. (It can’t be blocked except by creatures with flying or reach.)</t>
+          <t>('Eager Cadet', ['{W}', 'Creature — Human Soldier', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Breath of Life</t>
+          <t>('Giant Octopus', ['{3}{U}', 'Creature — Octopus', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{3}{W}</t>
+          <t>('Hand of Death', ['{2}{B}', 'Sorcery', 'Destroy target nonblack creature.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Knight Errant', ['{1}{W}', 'Creature — Human Knight', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Return target creature card from your graveyard to the battlefield.</t>
+          <t>('Lava Axe', ['{4}{R}', 'Sorcery', 'Lava Axe deals 5 damage to target player or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Durkwood Boars</t>
+          <t>("Mons's Goblin Raiders", ['{R}', 'Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{4}{G}</t>
+          <t>('Monstrous Growth', ['{1}{G}', 'Sorcery', 'Target creature gets +4/+4 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Creature — Boar</t>
+          <t>('Moon Sprite', ['{1}{G}', 'Creature — Faerie', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Ogre Warrior', ['{3}{R}', 'Creature — Ogre Warrior', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Eager Cadet</t>
+          <t>('Rhox', ['{4}{G}{G}', 'Creature — Rhino Beast', 'You may have Rhox assign its combat damage as though it weren’t blocked.', '{2}{G}: Regenerate Rhox. (The next time this creature would be destroyed this turn, it isn’t. Instead tap it, remove all damage from it, and remove it from combat.)', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{W}</t>
+          <t>('Royal Falcon', ['{1}{W}', 'Creature — Bird', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Creature — Human Soldier</t>
+          <t>('Sea Eagle', ['{1}{U}', 'Creature — Bird', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Time Ebb', ['{2}{U}', 'Sorcery', 'Put target creature on top of its owner’s library.'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Giant Octopus</t>
+          <t>('Trained Orgg', ['{6}{R}', 'Creature — Orgg', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{3}{U}</t>
+          <t>('Vizzerdrix', ['{6}{U}', 'Creature — Rabbit Beast', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Creature — Octopus</t>
+          <t>('Wild Griffin', ['{2}{W}', 'Creature — Griffin', 'Flying', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Hand of Death</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Destroy target nonblack creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Knight Errant</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creature — Human Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Lava Axe</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{4}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Lava Axe deals 5 damage to target player or planeswalker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mons's Goblin Raiders</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Monstrous Growth</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Target creature gets +4/+4 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Moon Sprite</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Creature — Faerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Ogre Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>{3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Creature — Ogre Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Rhox</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{4}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Creature — Rhino Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>You may have Rhox assign its combat damage as though it weren’t blocked.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>{2}{G}: Regenerate Rhox. (The next time this creature would be destroyed this turn, it isn’t. Instead tap it, remove all damage from it, and remove it from combat.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Royal Falcon</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Sea Eagle</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Time Ebb</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Put target creature on top of its owner’s library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Trained Orgg</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>{6}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Creature — Orgg</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Vizzerdrix</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>{6}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Creature — Rabbit Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Wild Griffin</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>{2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Creature — Griffin</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Willow Elf</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Creature — Elf</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Willow Elf', ['{G}', 'Creature — Elf', '1/1'])</t>
         </is>
       </c>
     </row>
